--- a/clr_conversion.xlsx
+++ b/clr_conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Root\projects\visual-working-memory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA860DE5-CB5E-4389-AE04-593D18643E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8613AA29-FE67-47BA-A71F-D79E5C1DD000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AF2AD12C-B362-4A3F-8913-D2FBC577A335}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF2AD12C-B362-4A3F-8913-D2FBC577A335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>[-0.23921568627451, -0.411764705882353, -0.349019607843137]</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>(61.7, 68.4, 65.7)</t>
+  </si>
+  <si>
+    <t>[1, -0.364705882352941, -0.756862745098039]</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>(97.9, 4.4, 0)</t>
+  </si>
+  <si>
+    <t>[1, 0.929411764705882, 0.952941176470588]</t>
   </si>
 </sst>
 </file>
@@ -491,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA1C60-DE74-4912-BD53-2BA39B712C78}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,19 +665,19 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F11" si="3">($H$1-$G$1)*((C6-0)/(255-0))+$G$1</f>
+        <f t="shared" ref="F6:F13" si="3">($H$1-$G$1)*((C6-0)/(255-0))+$G$1</f>
         <v>-1</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G11" si="4">($H$1-$G$1)*((D6-0)/(255-0))+$G$1</f>
+        <f t="shared" ref="G6:G13" si="4">($H$1-$G$1)*((D6-0)/(255-0))+$G$1</f>
         <v>0.96078431372549011</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H11" si="5">($H$1-$G$1)*((E6-0)/(255-0))+$G$1</f>
+        <f t="shared" ref="H6:H13" si="5">($H$1-$G$1)*((E6-0)/(255-0))+$G$1</f>
         <v>-0.97647058823529409</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I5:I11" si="6">"["&amp;F6&amp;", "&amp;G6&amp;", "&amp;H6&amp;"]"</f>
+        <f t="shared" ref="I6:J13" si="6">"["&amp;F6&amp;", "&amp;G6&amp;", "&amp;H6&amp;"]"</f>
         <v>[-1, 0.96078431372549, -0.976470588235294]</v>
       </c>
       <c r="J6" t="s">
@@ -844,6 +862,78 @@
       </c>
       <c r="J11" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-0.36470588235294121</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>-0.75686274509803919</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="6"/>
+        <v>[1, -0.364705882352941, -0.756862745098039]</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>246</v>
+      </c>
+      <c r="E13">
+        <v>249</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0.92941176470588238</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0.95294117647058818</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
+        <v>[1, 0.929411764705882, 0.952941176470588]</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
